--- a/RTM/RTM_MJ.xlsx
+++ b/RTM/RTM_MJ.xlsx
@@ -550,8 +550,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a768ebdab2e8e5d1ec2386d5e32e8654">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dccd74623e3f8273bece40a7e6a9129a" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6db33e56d53feac802f5e54067a2ca1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cff158ef49836e8e3ea10648d076f642" ns2:_="">
     <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -561,6 +561,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -579,6 +581,16 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -690,5 +702,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7076998A-B02C-4EED-B202-B6D3FA888D7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75C8534-E8B3-4209-9BC3-790FDDE75875}"/>
 </file>
--- a/RTM/RTM_MJ.xlsx
+++ b/RTM/RTM_MJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25712"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_9EEBC5610B2BB47BD18DD9FEF3B19C302C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{274565B1-F1DE-4F1E-8D2B-C5DF593FD929}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_9EEBC5610B2BB47BD18DD9FEF3B19C302C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DA76F0-7CDB-47AC-8B30-7C20C2AF8ED3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Req</t>
   </si>
@@ -45,7 +45,7 @@
     <t>IT Mapping</t>
   </si>
   <si>
-    <t>MJ-01</t>
+    <t>MJ01</t>
   </si>
   <si>
     <t>3.1.1</t>
@@ -57,7 +57,7 @@
     <t>IT_TEST_CASE-01</t>
   </si>
   <si>
-    <t>MJ-02</t>
+    <t>MJ02</t>
   </si>
   <si>
     <t>3.1.2</t>
@@ -69,7 +69,7 @@
     <t>IT_TEST_CASE-02</t>
   </si>
   <si>
-    <t>MJ-03</t>
+    <t>MJ03</t>
   </si>
   <si>
     <t>3.1.3</t>
@@ -78,13 +78,13 @@
     <t>stringValid()</t>
   </si>
   <si>
-    <t>Test cases</t>
+    <t>UT_TEST_CASE(1-10)</t>
   </si>
   <si>
     <t>IT_TEST_CASE-03</t>
   </si>
   <si>
-    <t>MJ-04</t>
+    <t>MJ04</t>
   </si>
   <si>
     <t>3.1.4</t>
@@ -96,7 +96,7 @@
     <t>IT_TEST_CASE-04</t>
   </si>
   <si>
-    <t>MJ-05</t>
+    <t>MJ05</t>
   </si>
   <si>
     <t>3.1.5</t>
@@ -108,7 +108,7 @@
     <t>IT_TEST_CASE-05</t>
   </si>
   <si>
-    <t>MJ-06</t>
+    <t>MJ06</t>
   </si>
   <si>
     <t>3.1.6</t>
@@ -120,7 +120,7 @@
     <t>IT_TEST_CASE-06</t>
   </si>
   <si>
-    <t>MJ-07</t>
+    <t>MJ07</t>
   </si>
   <si>
     <t>3.1.7</t>
@@ -130,13 +130,22 @@
   </si>
   <si>
     <t>IT_TEST_CASE-07</t>
+  </si>
+  <si>
+    <t>MJ08</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +186,15 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -249,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -261,8 +279,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -271,6 +289,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -589,7 +609,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +682,7 @@
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -703,7 +723,7 @@
     </row>
     <row r="7" spans="2:7" ht="18">
       <c r="B7" s="6"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -718,7 +738,7 @@
     </row>
     <row r="8" spans="2:7" ht="18">
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -732,12 +752,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+    <row r="9" spans="2:7" ht="18">
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="7"/>
@@ -765,6 +795,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6db33e56d53feac802f5e54067a2ca1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cff158ef49836e8e3ea10648d076f642" ns2:_="">
     <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
@@ -908,23 +947,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A0191F-BFA9-4F7A-9761-249F30977312}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF200A-C986-4380-B289-D9763C7D90A8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75C8534-E8B3-4209-9BC3-790FDDE75875}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AF200A-C986-4380-B289-D9763C7D90A8}"/>
 </file>
--- a/RTM/RTM_MJ.xlsx
+++ b/RTM/RTM_MJ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25712"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_9EEBC5610B2BB47BD18DD9FEF3B19C302C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DA76F0-7CDB-47AC-8B30-7C20C2AF8ED3}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_9EEBC5610B2BB47BD18DD9FEF3B19C302C73F02E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE3A30C-4982-4516-B5B0-15CC894CAE0A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Req</t>
   </si>
@@ -63,7 +63,7 @@
     <t>3.1.2</t>
   </si>
   <si>
-    <t>addtoList()</t>
+    <t>addtoList() ,validAdd()</t>
   </si>
   <si>
     <t>IT_TEST_CASE-02</t>
@@ -75,7 +75,7 @@
     <t>3.1.3</t>
   </si>
   <si>
-    <t>stringValid()</t>
+    <t>stringValid() , addtoList() ,invalidFile()</t>
   </si>
   <si>
     <t>UT_TEST_CASE(1-10)</t>
@@ -126,7 +126,7 @@
     <t>3.1.7</t>
   </si>
   <si>
-    <t>assignJob()</t>
+    <t>assignJob() , stringValid()</t>
   </si>
   <si>
     <t>IT_TEST_CASE-07</t>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>3.1.8</t>
+  </si>
+  <si>
+    <t>DisplayScheduleDT()</t>
   </si>
   <si>
     <t>NA</t>
@@ -145,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +192,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -269,7 +276,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,8 +295,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -609,7 +616,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,171 +624,171 @@
     <col min="2" max="2" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="30.75" customHeight="1">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18">
-      <c r="B3" s="6"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18">
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18">
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18">
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18">
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18">
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
+      <c r="F9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -789,21 +796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6db33e56d53feac802f5e54067a2ca1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cff158ef49836e8e3ea10648d076f642" ns2:_="">
     <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
@@ -947,8 +939,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A0191F-BFA9-4F7A-9761-249F30977312}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75C8534-E8B3-4209-9BC3-790FDDE75875}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,5 +963,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75C8534-E8B3-4209-9BC3-790FDDE75875}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4A0191F-BFA9-4F7A-9761-249F30977312}"/>
 </file>